--- a/data/pca/factorExposure/factorExposure_2012-12-10.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-12-10.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.0007192103829117258</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>-0.002344689361988422</v>
+      </c>
+      <c r="C2">
+        <v>-0.03130197892189222</v>
+      </c>
+      <c r="D2">
+        <v>0.003692205055254178</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.0006050028634990426</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0.006447140788717623</v>
+      </c>
+      <c r="C4">
+        <v>-0.08413573295185205</v>
+      </c>
+      <c r="D4">
+        <v>0.07772715545983748</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>-6.486131212122908e-05</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>0.01410433038968163</v>
+      </c>
+      <c r="C6">
+        <v>-0.1141865285591011</v>
+      </c>
+      <c r="D6">
+        <v>0.03222915310910934</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>-0.002007007910201304</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>0.004534990817775253</v>
+      </c>
+      <c r="C7">
+        <v>-0.05846485092535444</v>
+      </c>
+      <c r="D7">
+        <v>0.03017529135043191</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.0003415692304181639</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>0.005535145927691918</v>
+      </c>
+      <c r="C8">
+        <v>-0.03722802365957163</v>
+      </c>
+      <c r="D8">
+        <v>0.04231004155511097</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.003565383495940402</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>0.004631227183250175</v>
+      </c>
+      <c r="C9">
+        <v>-0.07064144530036204</v>
+      </c>
+      <c r="D9">
+        <v>0.07249847357299057</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.00190290152638993</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>0.005360943838263298</v>
+      </c>
+      <c r="C10">
+        <v>-0.05821059153504429</v>
+      </c>
+      <c r="D10">
+        <v>-0.1965871850697074</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.002587846178940897</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>0.005710612126910195</v>
+      </c>
+      <c r="C11">
+        <v>-0.07967894440346678</v>
+      </c>
+      <c r="D11">
+        <v>0.05908251379454376</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>0.0001358930734619125</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>0.004025627065165591</v>
+      </c>
+      <c r="C12">
+        <v>-0.06410340352112809</v>
+      </c>
+      <c r="D12">
+        <v>0.04568980520458685</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.001375929724170418</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>0.008906799538738634</v>
+      </c>
+      <c r="C13">
+        <v>-0.06850891485430746</v>
+      </c>
+      <c r="D13">
+        <v>0.056579636939918</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.0007637580658710033</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>0.001282845279756576</v>
+      </c>
+      <c r="C14">
+        <v>-0.04499987487510994</v>
+      </c>
+      <c r="D14">
+        <v>0.004700504362588921</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>-0.00105868614482314</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>0.005811940769595532</v>
+      </c>
+      <c r="C15">
+        <v>-0.04206097461104584</v>
+      </c>
+      <c r="D15">
+        <v>0.02962813485081289</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>-0.0007501586138028312</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>0.005041258921549553</v>
+      </c>
+      <c r="C16">
+        <v>-0.06498977235574273</v>
+      </c>
+      <c r="D16">
+        <v>0.04862578922986958</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0.000195051646952325</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>0.008637040859042806</v>
+      </c>
+      <c r="C20">
+        <v>-0.06531484755102346</v>
+      </c>
+      <c r="D20">
+        <v>0.04315374440630595</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.006043306684480792</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>0.009779674007132913</v>
+      </c>
+      <c r="C21">
+        <v>-0.02094097028034493</v>
+      </c>
+      <c r="D21">
+        <v>0.03859946715888445</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.01657712386569938</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>-0.006562518873337343</v>
+      </c>
+      <c r="C22">
+        <v>-0.0937192339041469</v>
+      </c>
+      <c r="D22">
+        <v>0.1134680308352173</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.01691075618140354</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>-0.006385675126156004</v>
+      </c>
+      <c r="C23">
+        <v>-0.09453313678311448</v>
+      </c>
+      <c r="D23">
+        <v>0.1134793464293453</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.001378412527099364</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>0.005485901125297277</v>
+      </c>
+      <c r="C24">
+        <v>-0.07629958190592456</v>
+      </c>
+      <c r="D24">
+        <v>0.06301509433900368</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.004445644033343556</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>0.002889655626373028</v>
+      </c>
+      <c r="C25">
+        <v>-0.07846288237110206</v>
+      </c>
+      <c r="D25">
+        <v>0.06492881160732385</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.003869881313893282</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>0.003645359295158587</v>
+      </c>
+      <c r="C26">
+        <v>-0.04139153797347159</v>
+      </c>
+      <c r="D26">
+        <v>0.02287426162895506</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.004261148705633213</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>-0.0007677292277391355</v>
+      </c>
+      <c r="C28">
+        <v>-0.1070635809836092</v>
+      </c>
+      <c r="D28">
+        <v>-0.3187760845600899</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.001527178537740631</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>0.002966404473604911</v>
+      </c>
+      <c r="C29">
+        <v>-0.05071079795742039</v>
+      </c>
+      <c r="D29">
+        <v>0.008051036828793129</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.002925416111354708</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>0.009564121332310096</v>
+      </c>
+      <c r="C30">
+        <v>-0.1417143936305185</v>
+      </c>
+      <c r="D30">
+        <v>0.1020671705487636</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.0005049679126713938</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>0.00621614722696058</v>
+      </c>
+      <c r="C31">
+        <v>-0.04447610567166001</v>
+      </c>
+      <c r="D31">
+        <v>0.02848537349548544</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>0.0002186633469394608</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>0.003986692036442752</v>
+      </c>
+      <c r="C32">
+        <v>-0.03929875523258931</v>
+      </c>
+      <c r="D32">
+        <v>0.0227401943312922</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>-0.00189104655930291</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>0.008537428342612528</v>
+      </c>
+      <c r="C33">
+        <v>-0.08646585143864298</v>
+      </c>
+      <c r="D33">
+        <v>0.06408085396570608</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.004658411955078881</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>0.004088938592566226</v>
+      </c>
+      <c r="C34">
+        <v>-0.05793752193328992</v>
+      </c>
+      <c r="D34">
+        <v>0.05377611984049022</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>-0.0008922730659086473</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>0.004892089746377737</v>
+      </c>
+      <c r="C35">
+        <v>-0.04049840597849356</v>
+      </c>
+      <c r="D35">
+        <v>0.01715333774429443</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.003465230188904448</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>-0.001055042703602947</v>
+      </c>
+      <c r="C36">
+        <v>-0.02497503559201322</v>
+      </c>
+      <c r="D36">
+        <v>0.02079275441712034</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.002226495593565724</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>0.009393192307546649</v>
+      </c>
+      <c r="C38">
+        <v>-0.03396469402381259</v>
+      </c>
+      <c r="D38">
+        <v>0.01674372951825893</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01240488838095355</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>-0.0008896948157672254</v>
+      </c>
+      <c r="C39">
+        <v>-0.1156345168818676</v>
+      </c>
+      <c r="D39">
+        <v>0.07472826166503388</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.009347279803141017</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>0.002676636703578741</v>
+      </c>
+      <c r="C40">
+        <v>-0.090045585781031</v>
+      </c>
+      <c r="D40">
+        <v>0.0132773128727423</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>0.000900944376783606</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>0.007283249550002529</v>
+      </c>
+      <c r="C41">
+        <v>-0.03820878297041578</v>
+      </c>
+      <c r="D41">
+        <v>0.03723086564522992</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.003179256282572395</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>0.003828365661129887</v>
+      </c>
+      <c r="C43">
+        <v>-0.0535146237014188</v>
+      </c>
+      <c r="D43">
+        <v>0.02471374900264344</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.005096127592123356</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>0.003152774281650773</v>
+      </c>
+      <c r="C44">
+        <v>-0.1092017031650307</v>
+      </c>
+      <c r="D44">
+        <v>0.06770231197009133</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.0009200487267610151</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>0.002057932059235538</v>
+      </c>
+      <c r="C46">
+        <v>-0.03304134366794611</v>
+      </c>
+      <c r="D46">
+        <v>0.03495219470968971</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>-0.0003864082385308425</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>0.00267369234281685</v>
+      </c>
+      <c r="C47">
+        <v>-0.03748939109739514</v>
+      </c>
+      <c r="D47">
+        <v>0.02220227131935942</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.004251546241844289</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>0.006803147481588414</v>
+      </c>
+      <c r="C48">
+        <v>-0.03124673107925661</v>
+      </c>
+      <c r="D48">
+        <v>0.03268402235080424</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>-0.0112126109064489</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>0.01572038905524518</v>
+      </c>
+      <c r="C49">
+        <v>-0.1850698277751752</v>
+      </c>
+      <c r="D49">
+        <v>0.01534057821076164</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.001224107545882947</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>0.003562184236867225</v>
+      </c>
+      <c r="C50">
+        <v>-0.04338878254369381</v>
+      </c>
+      <c r="D50">
+        <v>0.03595088972555804</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>0.0009517975074981022</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>0.004673640632800818</v>
+      </c>
+      <c r="C51">
+        <v>-0.02618996552239432</v>
+      </c>
+      <c r="D51">
+        <v>0.02113809256787306</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.001193083006882068</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>0.02108507957064555</v>
+      </c>
+      <c r="C53">
+        <v>-0.1697297802025293</v>
+      </c>
+      <c r="D53">
+        <v>0.02608400238103563</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.00149411111685381</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>0.008978051317658987</v>
+      </c>
+      <c r="C54">
+        <v>-0.05410656923198586</v>
+      </c>
+      <c r="D54">
+        <v>0.04480518795930215</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>-0.003397363308047829</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>0.009731116900021144</v>
+      </c>
+      <c r="C55">
+        <v>-0.1095306248751633</v>
+      </c>
+      <c r="D55">
+        <v>0.03853986713251587</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.002196651171420841</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>0.02024628294129642</v>
+      </c>
+      <c r="C56">
+        <v>-0.1746020936830899</v>
+      </c>
+      <c r="D56">
+        <v>0.01841999479644207</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>-0.007699322100207743</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>0.01909444695655919</v>
+      </c>
+      <c r="C58">
+        <v>-0.1098270273887311</v>
+      </c>
+      <c r="D58">
+        <v>0.06100662357700987</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.007044184031948565</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>0.009678728496176943</v>
+      </c>
+      <c r="C59">
+        <v>-0.1652087396942398</v>
+      </c>
+      <c r="D59">
+        <v>-0.3280767430718385</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>-0.004015693926937647</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>0.02449575821307575</v>
+      </c>
+      <c r="C60">
+        <v>-0.2229294869849467</v>
+      </c>
+      <c r="D60">
+        <v>0.03438529658890973</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.01430224734700907</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>-0.001781331136127178</v>
+      </c>
+      <c r="C61">
+        <v>-0.09449596873889281</v>
+      </c>
+      <c r="D61">
+        <v>0.05473965912178205</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1618283263716673</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>0.1457683366064643</v>
+      </c>
+      <c r="C62">
+        <v>-0.09538774696308476</v>
+      </c>
+      <c r="D62">
+        <v>0.03894916512185419</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>-0.0004375996555615204</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>0.00625911502878237</v>
+      </c>
+      <c r="C63">
+        <v>-0.0548665550476105</v>
+      </c>
+      <c r="D63">
+        <v>0.02661291954758857</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>-0.001096387095609773</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>0.0146313879461612</v>
+      </c>
+      <c r="C64">
+        <v>-0.1053867394145823</v>
+      </c>
+      <c r="D64">
+        <v>0.05675053772822705</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.00258830784024904</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>0.01774298785176397</v>
+      </c>
+      <c r="C65">
+        <v>-0.1247298962693317</v>
+      </c>
+      <c r="D65">
+        <v>0.02445417091293627</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.007491328090306224</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>0.01300662429070128</v>
+      </c>
+      <c r="C66">
+        <v>-0.1596124999409661</v>
+      </c>
+      <c r="D66">
+        <v>0.1104020428557996</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.003700677034494556</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>0.01561278113033045</v>
+      </c>
+      <c r="C67">
+        <v>-0.06521518521621278</v>
+      </c>
+      <c r="D67">
+        <v>0.02701335559029594</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.005837181224559592</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>0.0006684211531114568</v>
+      </c>
+      <c r="C68">
+        <v>-0.08698155427128088</v>
+      </c>
+      <c r="D68">
+        <v>-0.2610654846598975</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.002151524979663269</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>0.006037432932525831</v>
+      </c>
+      <c r="C69">
+        <v>-0.05040284244934789</v>
+      </c>
+      <c r="D69">
+        <v>0.0375764525315332</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>8.891927099334561e-05</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>0.001812845972525683</v>
+      </c>
+      <c r="C70">
+        <v>-0.002701930894481916</v>
+      </c>
+      <c r="D70">
+        <v>0.0003110278534779187</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>2.166038798319931e-05</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>0.00579127654173668</v>
+      </c>
+      <c r="C71">
+        <v>-0.09438159769834782</v>
+      </c>
+      <c r="D71">
+        <v>-0.3058509727409173</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>-0.00374590788842531</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>0.01601134038726355</v>
+      </c>
+      <c r="C72">
+        <v>-0.1532809116545703</v>
+      </c>
+      <c r="D72">
+        <v>0.01662807659370737</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>-0.01148571462694103</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>0.03097838711093278</v>
+      </c>
+      <c r="C73">
+        <v>-0.2794355815224451</v>
+      </c>
+      <c r="D73">
+        <v>0.05680953347627189</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.00532147370002783</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>0.001977625715621311</v>
+      </c>
+      <c r="C74">
+        <v>-0.1046656900716023</v>
+      </c>
+      <c r="D74">
+        <v>0.03551020842725817</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.003063001770219108</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>0.01103446852286532</v>
+      </c>
+      <c r="C75">
+        <v>-0.1249998923006431</v>
+      </c>
+      <c r="D75">
+        <v>0.02460962344256698</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.008298195225589264</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>0.02194831068422961</v>
+      </c>
+      <c r="C76">
+        <v>-0.1491445156546627</v>
+      </c>
+      <c r="D76">
+        <v>0.05712910777231858</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.003337712695052134</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>0.02274694023249028</v>
+      </c>
+      <c r="C77">
+        <v>-0.1204440795201984</v>
+      </c>
+      <c r="D77">
+        <v>0.08424044033898234</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.0008000308526279304</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>0.0149743226120527</v>
+      </c>
+      <c r="C78">
+        <v>-0.09596663096447293</v>
+      </c>
+      <c r="D78">
+        <v>0.07171241213779217</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02349441081013002</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>0.0381197724102961</v>
+      </c>
+      <c r="C79">
+        <v>-0.1572424355645378</v>
+      </c>
+      <c r="D79">
+        <v>0.03117195915690329</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.006562446479046379</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>0.01025898935240952</v>
+      </c>
+      <c r="C80">
+        <v>-0.03971538058218732</v>
+      </c>
+      <c r="D80">
+        <v>0.02862889341769879</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.0007496946444715595</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>0.01592396474456036</v>
+      </c>
+      <c r="C81">
+        <v>-0.1277920582881162</v>
+      </c>
+      <c r="D81">
+        <v>0.03915624276482803</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.004375804853279489</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>0.020144093186911</v>
+      </c>
+      <c r="C82">
+        <v>-0.1417359379608892</v>
+      </c>
+      <c r="D82">
+        <v>0.03413421559696336</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>-0.008297513614411514</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>0.01006118035147224</v>
+      </c>
+      <c r="C83">
+        <v>-0.05544585275740355</v>
+      </c>
+      <c r="D83">
+        <v>0.05387147089523692</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.01252447380090501</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>0.01142299864243626</v>
+      </c>
+      <c r="C84">
+        <v>-0.03654310037255755</v>
+      </c>
+      <c r="D84">
+        <v>-0.005865366932766025</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01374859540626449</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>0.02903085654979542</v>
+      </c>
+      <c r="C85">
+        <v>-0.125502412069804</v>
+      </c>
+      <c r="D85">
+        <v>0.04353818181283595</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.001775434132377943</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>0.005323575491035088</v>
+      </c>
+      <c r="C86">
+        <v>-0.04937430206598145</v>
+      </c>
+      <c r="D86">
+        <v>0.02869723149196598</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>-0.003341043996759752</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>0.01051789151317542</v>
+      </c>
+      <c r="C87">
+        <v>-0.1278850436274383</v>
+      </c>
+      <c r="D87">
+        <v>0.0732994975887326</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.01147291105234976</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>-0.002967523387045857</v>
+      </c>
+      <c r="C88">
+        <v>-0.06496028917337129</v>
+      </c>
+      <c r="D88">
+        <v>0.01832193062835276</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01333917629697556</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>-0.001639805054863595</v>
+      </c>
+      <c r="C89">
+        <v>-0.1465538768591402</v>
+      </c>
+      <c r="D89">
+        <v>-0.3323182103868402</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.001128482180501074</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>0.006707305799099998</v>
+      </c>
+      <c r="C90">
+        <v>-0.1207900023391966</v>
+      </c>
+      <c r="D90">
+        <v>-0.3188578621668444</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>-9.218463638511321e-05</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>0.0103453737877644</v>
+      </c>
+      <c r="C91">
+        <v>-0.10033831873226</v>
+      </c>
+      <c r="D91">
+        <v>0.02040152773448718</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.008391558168576242</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>0.001094480659369499</v>
+      </c>
+      <c r="C92">
+        <v>-0.135812480360408</v>
+      </c>
+      <c r="D92">
+        <v>-0.3253705435180322</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.0001009732100451138</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>0.005062062637051907</v>
+      </c>
+      <c r="C93">
+        <v>-0.1054225714234661</v>
+      </c>
+      <c r="D93">
+        <v>-0.3019365825129827</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.002550231377107618</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>0.02249723087503017</v>
+      </c>
+      <c r="C94">
+        <v>-0.1468154902030697</v>
+      </c>
+      <c r="D94">
+        <v>0.05266878418550647</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>-0.005597364859108138</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>0.01623779358276096</v>
+      </c>
+      <c r="C95">
+        <v>-0.1250117404029547</v>
+      </c>
+      <c r="D95">
+        <v>0.05767615557837311</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.000754572992050257</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>0.036651326773944</v>
+      </c>
+      <c r="C97">
+        <v>-0.2128032845247141</v>
+      </c>
+      <c r="D97">
+        <v>-0.004886368066261252</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>-0.003109353414292612</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>0.03705708993100695</v>
+      </c>
+      <c r="C98">
+        <v>-0.2495002477049737</v>
+      </c>
+      <c r="D98">
+        <v>0.05105906213832843</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9851101251005159</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>0.981986885558718</v>
+      </c>
+      <c r="C99">
+        <v>0.1174186432593683</v>
+      </c>
+      <c r="D99">
+        <v>-0.02658170195260751</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.001420682595140539</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>0.003001092951392234</v>
+      </c>
+      <c r="C101">
+        <v>-0.05082644203604283</v>
+      </c>
+      <c r="D101">
+        <v>0.008416255164943567</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
